--- a/Codelist Excel Files and Conversion Templates to XML/USCSSoilComponents.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/USCSSoilComponents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{3864CDCD-CB34-5347-AFE5-A381EFEA8AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{8F70CB25-C7DE-A14C-99B4-A97F674D603D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30640" yWindow="10560" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19820" yWindow="8760" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -743,12 +743,6 @@
     <t>classificationCode</t>
   </si>
   <si>
-    <t>Unified Soil Classificatoin Soil Components</t>
-  </si>
-  <si>
-    <t>These are values defined in ASTM D2487 to define the basic components of a soil, eg. sand, silt, gravel, etc. These codes are to be used in the classificationCode property for ComponentLith objects when descxribing specific components wihin a soil in detail.</t>
-  </si>
-  <si>
     <t>boulders</t>
   </si>
   <si>
@@ -837,6 +831,12 @@
   </si>
   <si>
     <t>//diggs:ComponentLith/classificationCode</t>
+  </si>
+  <si>
+    <t>Unified Soil Classification System Soil Component Names</t>
+  </si>
+  <si>
+    <t>These are values defined in ASTM D2487 to define the basic components of a soil, eg. sand, silt, gravel, etc. These codes are to be used in the classificationCode property for ComponentLith objects when describing specific components wihin a soil in detail.</t>
   </si>
 </sst>
 </file>
@@ -1623,8 +1623,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1671,10 +1671,10 @@
         <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1740,19 +1740,19 @@
         <v/>
       </c>
       <c r="B2" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1761,20 +1761,20 @@
         <v/>
       </c>
       <c r="B3" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>243</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H3" s="21"/>
     </row>
@@ -1784,20 +1784,20 @@
         <v/>
       </c>
       <c r="B4" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H4" s="21"/>
     </row>
@@ -1807,20 +1807,20 @@
         <v/>
       </c>
       <c r="B5" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1830,20 +1830,20 @@
         <v/>
       </c>
       <c r="B6" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>250</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>252</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H6" s="21"/>
     </row>
@@ -1853,23 +1853,23 @@
         <v/>
       </c>
       <c r="B7" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>253</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>255</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>263</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -1878,23 +1878,23 @@
         <v/>
       </c>
       <c r="B8" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>258</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +1924,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C8"/>
     </sheetView>
@@ -1957,10 +1957,10 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1969,10 +1969,10 @@
         <v/>
       </c>
       <c r="B3" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1981,10 +1981,10 @@
         <v/>
       </c>
       <c r="B4" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1993,10 +1993,10 @@
         <v/>
       </c>
       <c r="B5" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2005,10 +2005,10 @@
         <v/>
       </c>
       <c r="B6" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2017,10 +2017,10 @@
         <v/>
       </c>
       <c r="B7" s="23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2029,10 +2029,10 @@
         <v/>
       </c>
       <c r="B8" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/USCSSoilComponents.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/USCSSoilComponents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{8F70CB25-C7DE-A14C-99B4-A97F674D603D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{AF67FBB8-746A-F54D-AFF0-CD3AB70D3C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19820" yWindow="8760" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Codelist Excel Files and Conversion Templates to XML/USCSSoilComponents.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/USCSSoilComponents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{AF67FBB8-746A-F54D-AFF0-CD3AB70D3C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3713B3F1-49A0-5A46-980F-A9911AFFFA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19820" yWindow="8760" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19820" yWindow="8760" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="261">
   <si>
     <t>Description</t>
   </si>
@@ -807,24 +807,6 @@
   </si>
   <si>
     <t>Soil particles &lt; 0.002 mm</t>
-  </si>
-  <si>
-    <t>ASTM D2488</t>
-  </si>
-  <si>
-    <t>ASTM D2489</t>
-  </si>
-  <si>
-    <t>ASTM D2490</t>
-  </si>
-  <si>
-    <t>ASTM D2491</t>
-  </si>
-  <si>
-    <t>ASTM D2492</t>
-  </si>
-  <si>
-    <t>ASTM D2493</t>
   </si>
   <si>
     <t>Particle sizes only. Silt and clay are distinguished in ASTM by their plasticity characteristics.</t>
@@ -934,6 +916,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1017,7 +1000,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1056,21 +1039,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1623,7 +1593,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1671,10 +1641,10 @@
         <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -1691,8 +1661,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1756,145 +1726,135 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="str">
+      <c r="A3" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2826,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>241</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="H3" s="21"/>
+        <v>238</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="str">
+      <c r="A4" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2827,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>246</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21"/>
       <c r="G4" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="H4" s="21"/>
+        <v>238</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="str">
+      <c r="A5" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2828,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>249</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21"/>
       <c r="G5" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="H5" s="21"/>
+        <v>238</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="str">
+      <c r="A6" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2829,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>250</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="21"/>
       <c r="G6" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="21"/>
+        <v>238</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="str">
+      <c r="A7" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2830,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>253</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="21"/>
       <c r="G7" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>263</v>
+        <v>238</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="str">
+      <c r="A8" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2831,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>256</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="21"/>
       <c r="G8" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>263</v>
+        <v>238</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -1960,79 +1920,79 @@
         <v>235</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="str">
+      <c r="A3" t="str">
         <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1812,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="10" t="s">
         <v>239</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="str">
+      <c r="A4" t="str">
         <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1812,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="str">
+      <c r="A5" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1812,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="str">
+      <c r="A6" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1812,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="10" t="s">
         <v>247</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="str">
+      <c r="A7" t="str">
         <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1812,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="10" t="s">
         <v>251</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="str">
+      <c r="A8" t="str">
         <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1812,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="10" t="s">
         <v>254</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
